--- a/_output/AM/UI Results/UI Result - u4(b) VS p10(b).xlsx
+++ b/_output/AM/UI Results/UI Result - u4(b) VS p10(b).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -92,6 +98,132 @@
   </si>
   <si>
     <t>n4</t>
+  </si>
+  <si>
+    <t>[768 188] ; [ 76 142]</t>
+  </si>
+  <si>
+    <t>[734 245] ; [107 118]</t>
+  </si>
+  <si>
+    <t>[769 199] ; [133  92]</t>
+  </si>
+  <si>
+    <t>[780 188] ; [141  81]</t>
+  </si>
+  <si>
+    <t>[472 485] ; [ 65 156]</t>
+  </si>
+  <si>
+    <t>[576 371] ; [ 93 129]</t>
+  </si>
+  <si>
+    <t>[831 148] ; [159  66]</t>
+  </si>
+  <si>
+    <t>[699 269] ; [123 100]</t>
+  </si>
+  <si>
+    <t>[393 577] ; [ 51 171]</t>
+  </si>
+  <si>
+    <t>[540 426] ; [ 85 139]</t>
+  </si>
+  <si>
+    <t>[895  75] ; [182  41]</t>
+  </si>
+  <si>
+    <t>[893  78] ; [182  41]</t>
+  </si>
+  <si>
+    <t>[603 352] ; [103 119]</t>
+  </si>
+  <si>
+    <t>[452 518] ; [ 70 154]</t>
+  </si>
+  <si>
+    <t>[462 506] ; [ 72 150]</t>
+  </si>
+  <si>
+    <t>[423 502] ; [ 65 146]</t>
+  </si>
+  <si>
+    <t>[303 635] ; [ 41 176]</t>
+  </si>
+  <si>
+    <t>[485 471] ; [ 81 141]</t>
+  </si>
+  <si>
+    <t>[505 435] ; [ 89 130]</t>
+  </si>
+  <si>
+    <t>[687 291] ; [131  94]</t>
+  </si>
+  <si>
+    <t>[724 251] ; [141  82]</t>
+  </si>
+  <si>
+    <t>[687.27768313 268.72231687] ; [156.72231687  61.27768313]</t>
+  </si>
+  <si>
+    <t>[683.83637874 295.16362126] ; [157.16362126  67.83637874]</t>
+  </si>
+  <si>
+    <t>[731.88264878 236.11735122] ; [170.11735122  54.88264878]</t>
+  </si>
+  <si>
+    <t>[749.18319328 218.81680672] ; [171.81680672  50.18319328]</t>
+  </si>
+  <si>
+    <t>[436.25551783 520.74448217] ; [100.74448217 120.25551783]</t>
+  </si>
+  <si>
+    <t>[541.95295124 405.04704876] ; [127.04704876  94.95295124]</t>
+  </si>
+  <si>
+    <t>[804.99169435 174.00830565] ; [185.00830565  39.99169435]</t>
+  </si>
+  <si>
+    <t>[668.0906801 299.9093199] ; [153.9093199  69.0906801]</t>
+  </si>
+  <si>
+    <t>[361.30872483 608.69127517] ; [ 82.69127517 139.30872483]</t>
+  </si>
+  <si>
+    <t>[507.35294118 458.64705882] ; [117.64705882 106.35294118]</t>
+  </si>
+  <si>
+    <t>[875.68315172  94.31684828] ; [201.31684828  21.68315172]</t>
+  </si>
+  <si>
+    <t>[874.22529313  96.77470687] ; [200.77470687  22.22529313]</t>
+  </si>
+  <si>
+    <t>[572.83772302 382.16227698] ; [133.16227698  88.83772302]</t>
+  </si>
+  <si>
+    <t>[424.07035176 545.92964824] ; [ 97.92964824 126.07035176]</t>
+  </si>
+  <si>
+    <t>[434.37983193 533.62016807] ; [ 99.62016807 122.37983193]</t>
+  </si>
+  <si>
+    <t>[397.35915493 527.64084507] ; [ 90.64084507 120.35915493]</t>
+  </si>
+  <si>
+    <t>[279.36969697 658.63030303] ; [ 64.63030303 152.36969697]</t>
+  </si>
+  <si>
+    <t>[459.3344652 496.6655348] ; [106.6655348 115.3344652]</t>
+  </si>
+  <si>
+    <t>[481.76013805 458.23986195] ; [112.23986195 106.76013805]</t>
+  </si>
+  <si>
+    <t>[665.0074813 312.9925187] ; [152.9925187  72.0074813]</t>
+  </si>
+  <si>
+    <t>[703.98580968 271.01419032] ; [161.01419032  61.98580968]</t>
   </si>
 </sst>
 </file>
@@ -449,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,13 +603,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -488,16 +626,22 @@
       <c r="E2">
         <v>181.643874</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -508,16 +652,22 @@
       <c r="E3">
         <v>65.31146</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -528,16 +678,22 @@
       <c r="E4">
         <v>40.918328</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -548,16 +704,22 @@
       <c r="E5">
         <v>30.059096</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -568,16 +730,22 @@
       <c r="E6">
         <v>28.689129</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -588,16 +756,22 @@
       <c r="E7">
         <v>26.333186</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -608,16 +782,22 @@
       <c r="E8">
         <v>25.298187</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -628,16 +808,22 @@
       <c r="E9">
         <v>24.65107</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -648,16 +834,22 @@
       <c r="E10">
         <v>23.784768</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -668,16 +860,22 @@
       <c r="E11">
         <v>23.50582</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -688,16 +886,22 @@
       <c r="E12">
         <v>23.444641</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -708,16 +912,22 @@
       <c r="E13">
         <v>21.661064</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -728,16 +938,22 @@
       <c r="E14">
         <v>21.041451</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -748,16 +964,22 @@
       <c r="E15">
         <v>17.421453</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -768,16 +990,22 @@
       <c r="E16">
         <v>17.077335</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -788,16 +1016,22 @@
       <c r="E17">
         <v>15.61639</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -808,16 +1042,22 @@
       <c r="E18">
         <v>15.151048</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -828,16 +1068,22 @@
       <c r="E19">
         <v>14.647307</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -848,16 +1094,22 @@
       <c r="E20">
         <v>12.170559</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -868,16 +1120,22 @@
       <c r="E21">
         <v>12.150983</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -888,7 +1146,13 @@
       <c r="E22">
         <v>10.997062</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
